--- a/data/landings/cdfw/public/fish_bulletins/raw/fb117/raw/Table20.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb117/raw/Table20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb117/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17768287-52A3-DB44-A040-A87352AFBE27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B943D0C1-734B-5449-AD8A-9C14B43C2190}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24340" yWindow="520" windowWidth="16620" windowHeight="26440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="55">
   <si>
     <t>Value</t>
   </si>
@@ -551,13 +551,12 @@
   <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -577,8 +576,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1">
         <v>47006471</v>
